--- a/state_data_prest.xlsx
+++ b/state_data_prest.xlsx
@@ -94,799 +94,799 @@
     <t>3518800</t>
   </si>
   <si>
+    <t>3534401</t>
+  </si>
+  <si>
+    <t>3547809</t>
+  </si>
+  <si>
+    <t>3548708</t>
+  </si>
+  <si>
+    <t>3548807</t>
+  </si>
+  <si>
+    <t>3552809</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>3500105</t>
+  </si>
+  <si>
+    <t>3500204</t>
+  </si>
+  <si>
+    <t>3500303</t>
+  </si>
+  <si>
+    <t>3500402</t>
+  </si>
+  <si>
+    <t>3500501</t>
+  </si>
+  <si>
+    <t>3500550</t>
+  </si>
+  <si>
+    <t>3500600</t>
+  </si>
+  <si>
+    <t>3500709</t>
+  </si>
+  <si>
+    <t>3500758</t>
+  </si>
+  <si>
+    <t>3500808</t>
+  </si>
+  <si>
+    <t>3500907</t>
+  </si>
+  <si>
+    <t>3501004</t>
+  </si>
+  <si>
+    <t>3501103</t>
+  </si>
+  <si>
+    <t>3501152</t>
+  </si>
+  <si>
+    <t>3501202</t>
+  </si>
+  <si>
+    <t>3501301</t>
+  </si>
+  <si>
+    <t>3501400</t>
+  </si>
+  <si>
+    <t>3501509</t>
+  </si>
+  <si>
+    <t>3501608</t>
+  </si>
+  <si>
+    <t>3501707</t>
+  </si>
+  <si>
+    <t>3501806</t>
+  </si>
+  <si>
+    <t>3501905</t>
+  </si>
+  <si>
+    <t>3502002</t>
+  </si>
+  <si>
+    <t>3502101</t>
+  </si>
+  <si>
+    <t>3502200</t>
+  </si>
+  <si>
+    <t>3502309</t>
+  </si>
+  <si>
+    <t>3502408</t>
+  </si>
+  <si>
+    <t>3502507</t>
+  </si>
+  <si>
+    <t>3502606</t>
+  </si>
+  <si>
+    <t>3502705</t>
+  </si>
+  <si>
+    <t>3502754</t>
+  </si>
+  <si>
+    <t>3502804</t>
+  </si>
+  <si>
+    <t>3502903</t>
+  </si>
+  <si>
+    <t>3503000</t>
+  </si>
+  <si>
+    <t>3503109</t>
+  </si>
+  <si>
+    <t>3503158</t>
+  </si>
+  <si>
+    <t>3503208</t>
+  </si>
+  <si>
+    <t>3503307</t>
+  </si>
+  <si>
+    <t>3503356</t>
+  </si>
+  <si>
+    <t>3503406</t>
+  </si>
+  <si>
+    <t>3503505</t>
+  </si>
+  <si>
+    <t>3503604</t>
+  </si>
+  <si>
+    <t>3503703</t>
+  </si>
+  <si>
+    <t>3503802</t>
+  </si>
+  <si>
+    <t>3503901</t>
+  </si>
+  <si>
+    <t>3503950</t>
+  </si>
+  <si>
+    <t>3504008</t>
+  </si>
+  <si>
+    <t>3504107</t>
+  </si>
+  <si>
+    <t>3504206</t>
+  </si>
+  <si>
+    <t>3504305</t>
+  </si>
+  <si>
+    <t>3504404</t>
+  </si>
+  <si>
+    <t>3504503</t>
+  </si>
+  <si>
+    <t>3504602</t>
+  </si>
+  <si>
+    <t>3504701</t>
+  </si>
+  <si>
+    <t>3504800</t>
+  </si>
+  <si>
+    <t>3504909</t>
+  </si>
+  <si>
+    <t>3505005</t>
+  </si>
+  <si>
+    <t>3505104</t>
+  </si>
+  <si>
+    <t>3505203</t>
+  </si>
+  <si>
+    <t>3505302</t>
+  </si>
+  <si>
+    <t>3505351</t>
+  </si>
+  <si>
+    <t>3505401</t>
+  </si>
+  <si>
+    <t>3505500</t>
+  </si>
+  <si>
+    <t>3505609</t>
+  </si>
+  <si>
+    <t>3505708</t>
+  </si>
+  <si>
+    <t>3505807</t>
+  </si>
+  <si>
+    <t>3505906</t>
+  </si>
+  <si>
+    <t>3506003</t>
+  </si>
+  <si>
+    <t>3506102</t>
+  </si>
+  <si>
+    <t>3506201</t>
+  </si>
+  <si>
+    <t>3506300</t>
+  </si>
+  <si>
+    <t>3506359</t>
+  </si>
+  <si>
+    <t>3506409</t>
+  </si>
+  <si>
+    <t>3506508</t>
+  </si>
+  <si>
+    <t>3506607</t>
+  </si>
+  <si>
+    <t>3506706</t>
+  </si>
+  <si>
+    <t>3506805</t>
+  </si>
+  <si>
+    <t>3506904</t>
+  </si>
+  <si>
+    <t>3507001</t>
+  </si>
+  <si>
+    <t>3507100</t>
+  </si>
+  <si>
+    <t>3507159</t>
+  </si>
+  <si>
+    <t>3507209</t>
+  </si>
+  <si>
+    <t>3507308</t>
+  </si>
+  <si>
+    <t>3507407</t>
+  </si>
+  <si>
+    <t>3507456</t>
+  </si>
+  <si>
+    <t>3507506</t>
+  </si>
+  <si>
+    <t>3507605</t>
+  </si>
+  <si>
+    <t>3507704</t>
+  </si>
+  <si>
+    <t>3507753</t>
+  </si>
+  <si>
+    <t>3507803</t>
+  </si>
+  <si>
+    <t>3507902</t>
+  </si>
+  <si>
+    <t>3508009</t>
+  </si>
+  <si>
+    <t>3508108</t>
+  </si>
+  <si>
+    <t>3508207</t>
+  </si>
+  <si>
+    <t>3508306</t>
+  </si>
+  <si>
+    <t>3508405</t>
+  </si>
+  <si>
+    <t>3508504</t>
+  </si>
+  <si>
+    <t>3508603</t>
+  </si>
+  <si>
+    <t>3508702</t>
+  </si>
+  <si>
+    <t>3508801</t>
+  </si>
+  <si>
+    <t>3508900</t>
+  </si>
+  <si>
+    <t>3509007</t>
+  </si>
+  <si>
+    <t>3509106</t>
+  </si>
+  <si>
+    <t>3509205</t>
+  </si>
+  <si>
+    <t>3509254</t>
+  </si>
+  <si>
+    <t>3509304</t>
+  </si>
+  <si>
+    <t>3509403</t>
+  </si>
+  <si>
+    <t>3509452</t>
+  </si>
+  <si>
+    <t>3509502</t>
+  </si>
+  <si>
+    <t>3509601</t>
+  </si>
+  <si>
+    <t>3509700</t>
+  </si>
+  <si>
+    <t>3509809</t>
+  </si>
+  <si>
+    <t>3509908</t>
+  </si>
+  <si>
+    <t>3509957</t>
+  </si>
+  <si>
+    <t>3510005</t>
+  </si>
+  <si>
+    <t>3510104</t>
+  </si>
+  <si>
+    <t>3510153</t>
+  </si>
+  <si>
+    <t>3510203</t>
+  </si>
+  <si>
+    <t>3510302</t>
+  </si>
+  <si>
+    <t>3510401</t>
+  </si>
+  <si>
+    <t>3510500</t>
+  </si>
+  <si>
+    <t>3510609</t>
+  </si>
+  <si>
+    <t>3510708</t>
+  </si>
+  <si>
+    <t>3510807</t>
+  </si>
+  <si>
+    <t>3510906</t>
+  </si>
+  <si>
+    <t>3511003</t>
+  </si>
+  <si>
+    <t>3511102</t>
+  </si>
+  <si>
+    <t>3511201</t>
+  </si>
+  <si>
+    <t>3511300</t>
+  </si>
+  <si>
+    <t>3511409</t>
+  </si>
+  <si>
+    <t>3511508</t>
+  </si>
+  <si>
+    <t>3511607</t>
+  </si>
+  <si>
+    <t>3511706</t>
+  </si>
+  <si>
+    <t>3511904</t>
+  </si>
+  <si>
+    <t>3512001</t>
+  </si>
+  <si>
+    <t>3512100</t>
+  </si>
+  <si>
+    <t>3512209</t>
+  </si>
+  <si>
+    <t>3512308</t>
+  </si>
+  <si>
+    <t>3512407</t>
+  </si>
+  <si>
+    <t>3512506</t>
+  </si>
+  <si>
+    <t>3512605</t>
+  </si>
+  <si>
+    <t>3512704</t>
+  </si>
+  <si>
+    <t>3512803</t>
+  </si>
+  <si>
+    <t>3512902</t>
+  </si>
+  <si>
+    <t>3513009</t>
+  </si>
+  <si>
+    <t>3513108</t>
+  </si>
+  <si>
+    <t>3513207</t>
+  </si>
+  <si>
+    <t>3513306</t>
+  </si>
+  <si>
+    <t>3513405</t>
+  </si>
+  <si>
+    <t>3513504</t>
+  </si>
+  <si>
+    <t>3513603</t>
+  </si>
+  <si>
+    <t>3513702</t>
+  </si>
+  <si>
+    <t>3513801</t>
+  </si>
+  <si>
+    <t>3513850</t>
+  </si>
+  <si>
+    <t>3513900</t>
+  </si>
+  <si>
+    <t>3514007</t>
+  </si>
+  <si>
+    <t>3514106</t>
+  </si>
+  <si>
+    <t>3514205</t>
+  </si>
+  <si>
+    <t>3514304</t>
+  </si>
+  <si>
+    <t>3514403</t>
+  </si>
+  <si>
+    <t>3514502</t>
+  </si>
+  <si>
+    <t>3514601</t>
+  </si>
+  <si>
+    <t>3514700</t>
+  </si>
+  <si>
+    <t>3514809</t>
+  </si>
+  <si>
+    <t>3514908</t>
+  </si>
+  <si>
+    <t>3514924</t>
+  </si>
+  <si>
+    <t>3514957</t>
+  </si>
+  <si>
+    <t>3515004</t>
+  </si>
+  <si>
+    <t>3515103</t>
+  </si>
+  <si>
+    <t>3515129</t>
+  </si>
+  <si>
+    <t>3515152</t>
+  </si>
+  <si>
+    <t>3515186</t>
+  </si>
+  <si>
+    <t>3515194</t>
+  </si>
+  <si>
+    <t>3515202</t>
+  </si>
+  <si>
+    <t>3515301</t>
+  </si>
+  <si>
+    <t>3515350</t>
+  </si>
+  <si>
+    <t>3515400</t>
+  </si>
+  <si>
+    <t>3515509</t>
+  </si>
+  <si>
+    <t>3515608</t>
+  </si>
+  <si>
+    <t>3515657</t>
+  </si>
+  <si>
+    <t>3515707</t>
+  </si>
+  <si>
+    <t>3515806</t>
+  </si>
+  <si>
+    <t>3515905</t>
+  </si>
+  <si>
+    <t>3516002</t>
+  </si>
+  <si>
+    <t>3516101</t>
+  </si>
+  <si>
+    <t>3516200</t>
+  </si>
+  <si>
+    <t>3516309</t>
+  </si>
+  <si>
+    <t>3516408</t>
+  </si>
+  <si>
+    <t>3516507</t>
+  </si>
+  <si>
+    <t>3516606</t>
+  </si>
+  <si>
+    <t>3516705</t>
+  </si>
+  <si>
+    <t>3516804</t>
+  </si>
+  <si>
+    <t>3516853</t>
+  </si>
+  <si>
+    <t>3516903</t>
+  </si>
+  <si>
+    <t>3517000</t>
+  </si>
+  <si>
+    <t>3517109</t>
+  </si>
+  <si>
+    <t>3517208</t>
+  </si>
+  <si>
+    <t>3517307</t>
+  </si>
+  <si>
+    <t>3517406</t>
+  </si>
+  <si>
+    <t>3517505</t>
+  </si>
+  <si>
+    <t>3517604</t>
+  </si>
+  <si>
+    <t>3517703</t>
+  </si>
+  <si>
+    <t>3517802</t>
+  </si>
+  <si>
+    <t>3517901</t>
+  </si>
+  <si>
+    <t>3518008</t>
+  </si>
+  <si>
+    <t>3518107</t>
+  </si>
+  <si>
+    <t>3518206</t>
+  </si>
+  <si>
+    <t>3518305</t>
+  </si>
+  <si>
+    <t>3518404</t>
+  </si>
+  <si>
+    <t>3518503</t>
+  </si>
+  <si>
+    <t>3518602</t>
+  </si>
+  <si>
+    <t>3518701</t>
+  </si>
+  <si>
+    <t>3518859</t>
+  </si>
+  <si>
+    <t>3518909</t>
+  </si>
+  <si>
+    <t>3519006</t>
+  </si>
+  <si>
+    <t>3519055</t>
+  </si>
+  <si>
+    <t>3519071</t>
+  </si>
+  <si>
+    <t>3519105</t>
+  </si>
+  <si>
+    <t>3519204</t>
+  </si>
+  <si>
+    <t>3519253</t>
+  </si>
+  <si>
+    <t>3519303</t>
+  </si>
+  <si>
+    <t>3519402</t>
+  </si>
+  <si>
+    <t>3519501</t>
+  </si>
+  <si>
+    <t>3519600</t>
+  </si>
+  <si>
+    <t>3519709</t>
+  </si>
+  <si>
+    <t>3519808</t>
+  </si>
+  <si>
+    <t>3519907</t>
+  </si>
+  <si>
+    <t>3520004</t>
+  </si>
+  <si>
+    <t>3520103</t>
+  </si>
+  <si>
+    <t>3520202</t>
+  </si>
+  <si>
+    <t>3520301</t>
+  </si>
+  <si>
+    <t>3520400</t>
+  </si>
+  <si>
+    <t>3520426</t>
+  </si>
+  <si>
+    <t>3520442</t>
+  </si>
+  <si>
+    <t>3520509</t>
+  </si>
+  <si>
+    <t>3520608</t>
+  </si>
+  <si>
+    <t>3520707</t>
+  </si>
+  <si>
+    <t>3520806</t>
+  </si>
+  <si>
+    <t>3520905</t>
+  </si>
+  <si>
+    <t>3521002</t>
+  </si>
+  <si>
+    <t>3521101</t>
+  </si>
+  <si>
+    <t>3521150</t>
+  </si>
+  <si>
+    <t>3521200</t>
+  </si>
+  <si>
+    <t>3521309</t>
+  </si>
+  <si>
+    <t>3521408</t>
+  </si>
+  <si>
+    <t>3521507</t>
+  </si>
+  <si>
+    <t>3521606</t>
+  </si>
+  <si>
+    <t>3521705</t>
+  </si>
+  <si>
+    <t>3521804</t>
+  </si>
+  <si>
+    <t>3521903</t>
+  </si>
+  <si>
+    <t>3522000</t>
+  </si>
+  <si>
+    <t>3522109</t>
+  </si>
+  <si>
+    <t>3522158</t>
+  </si>
+  <si>
     <t>3522208</t>
-  </si>
-  <si>
-    <t>3534401</t>
-  </si>
-  <si>
-    <t>3547809</t>
-  </si>
-  <si>
-    <t>3548708</t>
-  </si>
-  <si>
-    <t>3548807</t>
-  </si>
-  <si>
-    <t>3552809</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>3500105</t>
-  </si>
-  <si>
-    <t>3500204</t>
-  </si>
-  <si>
-    <t>3500303</t>
-  </si>
-  <si>
-    <t>3500402</t>
-  </si>
-  <si>
-    <t>3500501</t>
-  </si>
-  <si>
-    <t>3500550</t>
-  </si>
-  <si>
-    <t>3500600</t>
-  </si>
-  <si>
-    <t>3500709</t>
-  </si>
-  <si>
-    <t>3500758</t>
-  </si>
-  <si>
-    <t>3500808</t>
-  </si>
-  <si>
-    <t>3500907</t>
-  </si>
-  <si>
-    <t>3501004</t>
-  </si>
-  <si>
-    <t>3501103</t>
-  </si>
-  <si>
-    <t>3501152</t>
-  </si>
-  <si>
-    <t>3501202</t>
-  </si>
-  <si>
-    <t>3501301</t>
-  </si>
-  <si>
-    <t>3501400</t>
-  </si>
-  <si>
-    <t>3501509</t>
-  </si>
-  <si>
-    <t>3501608</t>
-  </si>
-  <si>
-    <t>3501707</t>
-  </si>
-  <si>
-    <t>3501806</t>
-  </si>
-  <si>
-    <t>3501905</t>
-  </si>
-  <si>
-    <t>3502002</t>
-  </si>
-  <si>
-    <t>3502101</t>
-  </si>
-  <si>
-    <t>3502200</t>
-  </si>
-  <si>
-    <t>3502309</t>
-  </si>
-  <si>
-    <t>3502408</t>
-  </si>
-  <si>
-    <t>3502507</t>
-  </si>
-  <si>
-    <t>3502606</t>
-  </si>
-  <si>
-    <t>3502705</t>
-  </si>
-  <si>
-    <t>3502754</t>
-  </si>
-  <si>
-    <t>3502804</t>
-  </si>
-  <si>
-    <t>3502903</t>
-  </si>
-  <si>
-    <t>3503000</t>
-  </si>
-  <si>
-    <t>3503109</t>
-  </si>
-  <si>
-    <t>3503158</t>
-  </si>
-  <si>
-    <t>3503208</t>
-  </si>
-  <si>
-    <t>3503307</t>
-  </si>
-  <si>
-    <t>3503356</t>
-  </si>
-  <si>
-    <t>3503406</t>
-  </si>
-  <si>
-    <t>3503505</t>
-  </si>
-  <si>
-    <t>3503604</t>
-  </si>
-  <si>
-    <t>3503703</t>
-  </si>
-  <si>
-    <t>3503802</t>
-  </si>
-  <si>
-    <t>3503901</t>
-  </si>
-  <si>
-    <t>3503950</t>
-  </si>
-  <si>
-    <t>3504008</t>
-  </si>
-  <si>
-    <t>3504107</t>
-  </si>
-  <si>
-    <t>3504206</t>
-  </si>
-  <si>
-    <t>3504305</t>
-  </si>
-  <si>
-    <t>3504404</t>
-  </si>
-  <si>
-    <t>3504503</t>
-  </si>
-  <si>
-    <t>3504602</t>
-  </si>
-  <si>
-    <t>3504701</t>
-  </si>
-  <si>
-    <t>3504800</t>
-  </si>
-  <si>
-    <t>3504909</t>
-  </si>
-  <si>
-    <t>3505005</t>
-  </si>
-  <si>
-    <t>3505104</t>
-  </si>
-  <si>
-    <t>3505203</t>
-  </si>
-  <si>
-    <t>3505302</t>
-  </si>
-  <si>
-    <t>3505351</t>
-  </si>
-  <si>
-    <t>3505401</t>
-  </si>
-  <si>
-    <t>3505500</t>
-  </si>
-  <si>
-    <t>3505609</t>
-  </si>
-  <si>
-    <t>3505708</t>
-  </si>
-  <si>
-    <t>3505807</t>
-  </si>
-  <si>
-    <t>3505906</t>
-  </si>
-  <si>
-    <t>3506003</t>
-  </si>
-  <si>
-    <t>3506102</t>
-  </si>
-  <si>
-    <t>3506201</t>
-  </si>
-  <si>
-    <t>3506300</t>
-  </si>
-  <si>
-    <t>3506359</t>
-  </si>
-  <si>
-    <t>3506409</t>
-  </si>
-  <si>
-    <t>3506508</t>
-  </si>
-  <si>
-    <t>3506607</t>
-  </si>
-  <si>
-    <t>3506706</t>
-  </si>
-  <si>
-    <t>3506805</t>
-  </si>
-  <si>
-    <t>3506904</t>
-  </si>
-  <si>
-    <t>3507001</t>
-  </si>
-  <si>
-    <t>3507100</t>
-  </si>
-  <si>
-    <t>3507159</t>
-  </si>
-  <si>
-    <t>3507209</t>
-  </si>
-  <si>
-    <t>3507308</t>
-  </si>
-  <si>
-    <t>3507407</t>
-  </si>
-  <si>
-    <t>3507456</t>
-  </si>
-  <si>
-    <t>3507506</t>
-  </si>
-  <si>
-    <t>3507605</t>
-  </si>
-  <si>
-    <t>3507704</t>
-  </si>
-  <si>
-    <t>3507753</t>
-  </si>
-  <si>
-    <t>3507803</t>
-  </si>
-  <si>
-    <t>3507902</t>
-  </si>
-  <si>
-    <t>3508009</t>
-  </si>
-  <si>
-    <t>3508108</t>
-  </si>
-  <si>
-    <t>3508207</t>
-  </si>
-  <si>
-    <t>3508306</t>
-  </si>
-  <si>
-    <t>3508405</t>
-  </si>
-  <si>
-    <t>3508504</t>
-  </si>
-  <si>
-    <t>3508603</t>
-  </si>
-  <si>
-    <t>3508702</t>
-  </si>
-  <si>
-    <t>3508801</t>
-  </si>
-  <si>
-    <t>3508900</t>
-  </si>
-  <si>
-    <t>3509007</t>
-  </si>
-  <si>
-    <t>3509106</t>
-  </si>
-  <si>
-    <t>3509205</t>
-  </si>
-  <si>
-    <t>3509254</t>
-  </si>
-  <si>
-    <t>3509304</t>
-  </si>
-  <si>
-    <t>3509403</t>
-  </si>
-  <si>
-    <t>3509452</t>
-  </si>
-  <si>
-    <t>3509502</t>
-  </si>
-  <si>
-    <t>3509601</t>
-  </si>
-  <si>
-    <t>3509700</t>
-  </si>
-  <si>
-    <t>3509809</t>
-  </si>
-  <si>
-    <t>3509908</t>
-  </si>
-  <si>
-    <t>3509957</t>
-  </si>
-  <si>
-    <t>3510005</t>
-  </si>
-  <si>
-    <t>3510104</t>
-  </si>
-  <si>
-    <t>3510153</t>
-  </si>
-  <si>
-    <t>3510203</t>
-  </si>
-  <si>
-    <t>3510302</t>
-  </si>
-  <si>
-    <t>3510401</t>
-  </si>
-  <si>
-    <t>3510500</t>
-  </si>
-  <si>
-    <t>3510609</t>
-  </si>
-  <si>
-    <t>3510708</t>
-  </si>
-  <si>
-    <t>3510807</t>
-  </si>
-  <si>
-    <t>3510906</t>
-  </si>
-  <si>
-    <t>3511003</t>
-  </si>
-  <si>
-    <t>3511102</t>
-  </si>
-  <si>
-    <t>3511201</t>
-  </si>
-  <si>
-    <t>3511300</t>
-  </si>
-  <si>
-    <t>3511409</t>
-  </si>
-  <si>
-    <t>3511508</t>
-  </si>
-  <si>
-    <t>3511607</t>
-  </si>
-  <si>
-    <t>3511706</t>
-  </si>
-  <si>
-    <t>3511904</t>
-  </si>
-  <si>
-    <t>3512001</t>
-  </si>
-  <si>
-    <t>3512100</t>
-  </si>
-  <si>
-    <t>3512209</t>
-  </si>
-  <si>
-    <t>3512308</t>
-  </si>
-  <si>
-    <t>3512407</t>
-  </si>
-  <si>
-    <t>3512506</t>
-  </si>
-  <si>
-    <t>3512605</t>
-  </si>
-  <si>
-    <t>3512704</t>
-  </si>
-  <si>
-    <t>3512803</t>
-  </si>
-  <si>
-    <t>3512902</t>
-  </si>
-  <si>
-    <t>3513009</t>
-  </si>
-  <si>
-    <t>3513108</t>
-  </si>
-  <si>
-    <t>3513207</t>
-  </si>
-  <si>
-    <t>3513306</t>
-  </si>
-  <si>
-    <t>3513405</t>
-  </si>
-  <si>
-    <t>3513504</t>
-  </si>
-  <si>
-    <t>3513603</t>
-  </si>
-  <si>
-    <t>3513702</t>
-  </si>
-  <si>
-    <t>3513801</t>
-  </si>
-  <si>
-    <t>3513850</t>
-  </si>
-  <si>
-    <t>3513900</t>
-  </si>
-  <si>
-    <t>3514007</t>
-  </si>
-  <si>
-    <t>3514106</t>
-  </si>
-  <si>
-    <t>3514205</t>
-  </si>
-  <si>
-    <t>3514304</t>
-  </si>
-  <si>
-    <t>3514403</t>
-  </si>
-  <si>
-    <t>3514502</t>
-  </si>
-  <si>
-    <t>3514601</t>
-  </si>
-  <si>
-    <t>3514700</t>
-  </si>
-  <si>
-    <t>3514809</t>
-  </si>
-  <si>
-    <t>3514908</t>
-  </si>
-  <si>
-    <t>3514924</t>
-  </si>
-  <si>
-    <t>3514957</t>
-  </si>
-  <si>
-    <t>3515004</t>
-  </si>
-  <si>
-    <t>3515103</t>
-  </si>
-  <si>
-    <t>3515129</t>
-  </si>
-  <si>
-    <t>3515152</t>
-  </si>
-  <si>
-    <t>3515186</t>
-  </si>
-  <si>
-    <t>3515194</t>
-  </si>
-  <si>
-    <t>3515202</t>
-  </si>
-  <si>
-    <t>3515301</t>
-  </si>
-  <si>
-    <t>3515350</t>
-  </si>
-  <si>
-    <t>3515400</t>
-  </si>
-  <si>
-    <t>3515509</t>
-  </si>
-  <si>
-    <t>3515608</t>
-  </si>
-  <si>
-    <t>3515657</t>
-  </si>
-  <si>
-    <t>3515707</t>
-  </si>
-  <si>
-    <t>3515806</t>
-  </si>
-  <si>
-    <t>3515905</t>
-  </si>
-  <si>
-    <t>3516002</t>
-  </si>
-  <si>
-    <t>3516101</t>
-  </si>
-  <si>
-    <t>3516200</t>
-  </si>
-  <si>
-    <t>3516309</t>
-  </si>
-  <si>
-    <t>3516408</t>
-  </si>
-  <si>
-    <t>3516507</t>
-  </si>
-  <si>
-    <t>3516606</t>
-  </si>
-  <si>
-    <t>3516705</t>
-  </si>
-  <si>
-    <t>3516804</t>
-  </si>
-  <si>
-    <t>3516853</t>
-  </si>
-  <si>
-    <t>3516903</t>
-  </si>
-  <si>
-    <t>3517000</t>
-  </si>
-  <si>
-    <t>3517109</t>
-  </si>
-  <si>
-    <t>3517208</t>
-  </si>
-  <si>
-    <t>3517307</t>
-  </si>
-  <si>
-    <t>3517406</t>
-  </si>
-  <si>
-    <t>3517505</t>
-  </si>
-  <si>
-    <t>3517604</t>
-  </si>
-  <si>
-    <t>3517703</t>
-  </si>
-  <si>
-    <t>3517802</t>
-  </si>
-  <si>
-    <t>3517901</t>
-  </si>
-  <si>
-    <t>3518008</t>
-  </si>
-  <si>
-    <t>3518107</t>
-  </si>
-  <si>
-    <t>3518206</t>
-  </si>
-  <si>
-    <t>3518305</t>
-  </si>
-  <si>
-    <t>3518404</t>
-  </si>
-  <si>
-    <t>3518503</t>
-  </si>
-  <si>
-    <t>3518602</t>
-  </si>
-  <si>
-    <t>3518701</t>
-  </si>
-  <si>
-    <t>3518859</t>
-  </si>
-  <si>
-    <t>3518909</t>
-  </si>
-  <si>
-    <t>3519006</t>
-  </si>
-  <si>
-    <t>3519055</t>
-  </si>
-  <si>
-    <t>3519071</t>
-  </si>
-  <si>
-    <t>3519105</t>
-  </si>
-  <si>
-    <t>3519204</t>
-  </si>
-  <si>
-    <t>3519253</t>
-  </si>
-  <si>
-    <t>3519303</t>
-  </si>
-  <si>
-    <t>3519402</t>
-  </si>
-  <si>
-    <t>3519501</t>
-  </si>
-  <si>
-    <t>3519600</t>
-  </si>
-  <si>
-    <t>3519709</t>
-  </si>
-  <si>
-    <t>3519808</t>
-  </si>
-  <si>
-    <t>3519907</t>
-  </si>
-  <si>
-    <t>3520004</t>
-  </si>
-  <si>
-    <t>3520103</t>
-  </si>
-  <si>
-    <t>3520202</t>
-  </si>
-  <si>
-    <t>3520301</t>
-  </si>
-  <si>
-    <t>3520400</t>
-  </si>
-  <si>
-    <t>3520426</t>
-  </si>
-  <si>
-    <t>3520442</t>
-  </si>
-  <si>
-    <t>3520509</t>
-  </si>
-  <si>
-    <t>3520608</t>
-  </si>
-  <si>
-    <t>3520707</t>
-  </si>
-  <si>
-    <t>3520806</t>
-  </si>
-  <si>
-    <t>3520905</t>
-  </si>
-  <si>
-    <t>3521002</t>
-  </si>
-  <si>
-    <t>3521101</t>
-  </si>
-  <si>
-    <t>3521150</t>
-  </si>
-  <si>
-    <t>3521200</t>
-  </si>
-  <si>
-    <t>3521309</t>
-  </si>
-  <si>
-    <t>3521408</t>
-  </si>
-  <si>
-    <t>3521507</t>
-  </si>
-  <si>
-    <t>3521606</t>
-  </si>
-  <si>
-    <t>3521705</t>
-  </si>
-  <si>
-    <t>3521804</t>
-  </si>
-  <si>
-    <t>3521903</t>
-  </si>
-  <si>
-    <t>3522000</t>
-  </si>
-  <si>
-    <t>3522109</t>
-  </si>
-  <si>
-    <t>3522158</t>
   </si>
   <si>
     <t>3522307</t>
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
